--- a/tabellen/concept/5.1/objectentabellen-verkort/objecten-concept-5.1-OG-ondergrond.xlsx
+++ b/tabellen/concept/5.1/objectentabellen-verkort/objecten-concept-5.1-OG-ondergrond.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\100289\OneDrive\GitHub\NLCS\tabellen\concept\5.1\objectentabellen-verkort\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{5CD42BAD-13C7-447E-8C88-F69D34CA9306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{ACEF6072-5FC7-452B-A950-BCAB3DBA8874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{33CFBF4C-1FB8-466F-A00A-DF6A5E5F03E8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{CED46DBE-261E-48E4-BDD3-40826444DEAC}"/>
   </bookViews>
   <sheets>
     <sheet name="objecten-concept-5.1-OG-ondergr" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3425" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3429" uniqueCount="487">
   <si>
     <t>hoofdgroep</t>
   </si>
@@ -283,6 +283,9 @@
     <t>190,232,255</t>
   </si>
   <si>
+    <t>WEG_RIJCURVE</t>
+  </si>
+  <si>
     <t>WEG_STRAATNAAM</t>
   </si>
   <si>
@@ -808,6 +811,9 @@
     <t>U11</t>
   </si>
   <si>
+    <t>ZONE</t>
+  </si>
+  <si>
     <t>DWM</t>
   </si>
   <si>
@@ -1478,12 +1484,6 @@
   </si>
   <si>
     <t>TERREIN_ONBEGROEID_ZAND</t>
-  </si>
-  <si>
-    <t>WEG_RIJCURVE</t>
-  </si>
-  <si>
-    <t>ZONE</t>
   </si>
 </sst>
 </file>
@@ -2343,16 +2343,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAD1B16C-AC97-4753-B672-739F36E48A9E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02DDE68A-8D06-4752-A48A-1F68471CAF53}">
   <dimension ref="A1:AJ258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="C234" sqref="C234"/>
+    <sheetView tabSelected="1" topLeftCell="E73" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="65.36328125" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.35">
@@ -2473,7 +2474,7 @@
         <v>2547</v>
       </c>
       <c r="C2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E2" t="s">
         <v>38</v>
@@ -2574,7 +2575,7 @@
         <v>1616</v>
       </c>
       <c r="C3" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="E3" t="s">
         <v>38</v>
@@ -2675,7 +2676,7 @@
         <v>3525</v>
       </c>
       <c r="C4" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="D4">
         <v>1616</v>
@@ -2723,7 +2724,7 @@
         <v>7</v>
       </c>
       <c r="S4" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="T4" t="s">
         <v>41</v>
@@ -2779,7 +2780,7 @@
         <v>3139</v>
       </c>
       <c r="C5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D5">
         <v>1616</v>
@@ -2827,7 +2828,7 @@
         <v>7</v>
       </c>
       <c r="S5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="T5" t="s">
         <v>41</v>
@@ -2875,7 +2876,7 @@
         <v>41</v>
       </c>
       <c r="AJ5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.35">
@@ -2886,7 +2887,7 @@
         <v>3142</v>
       </c>
       <c r="C6" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="D6">
         <v>3139</v>
@@ -2934,7 +2935,7 @@
         <v>7</v>
       </c>
       <c r="S6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="T6" t="s">
         <v>41</v>
@@ -2990,7 +2991,7 @@
         <v>3141</v>
       </c>
       <c r="C7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="D7">
         <v>3139</v>
@@ -3038,7 +3039,7 @@
         <v>7</v>
       </c>
       <c r="S7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="T7" t="s">
         <v>41</v>
@@ -3094,7 +3095,7 @@
         <v>3140</v>
       </c>
       <c r="C8" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D8">
         <v>3139</v>
@@ -3142,7 +3143,7 @@
         <v>7</v>
       </c>
       <c r="S8" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="T8" t="s">
         <v>41</v>
@@ -3198,7 +3199,7 @@
         <v>3524</v>
       </c>
       <c r="C9" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="D9">
         <v>1616</v>
@@ -3246,7 +3247,7 @@
         <v>7</v>
       </c>
       <c r="S9" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="T9" t="s">
         <v>41</v>
@@ -3302,7 +3303,7 @@
         <v>3143</v>
       </c>
       <c r="C10" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D10">
         <v>1616</v>
@@ -3350,7 +3351,7 @@
         <v>7</v>
       </c>
       <c r="S10" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="T10" t="s">
         <v>41</v>
@@ -3406,7 +3407,7 @@
         <v>3144</v>
       </c>
       <c r="C11" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D11">
         <v>3143</v>
@@ -3454,7 +3455,7 @@
         <v>7</v>
       </c>
       <c r="S11" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="T11" t="s">
         <v>41</v>
@@ -3510,7 +3511,7 @@
         <v>3145</v>
       </c>
       <c r="C12" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D12">
         <v>1616</v>
@@ -3558,7 +3559,7 @@
         <v>7</v>
       </c>
       <c r="S12" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="T12" t="s">
         <v>41</v>
@@ -3718,7 +3719,7 @@
         <v>3526</v>
       </c>
       <c r="C14" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="D14">
         <v>1616</v>
@@ -3745,7 +3746,7 @@
         <v>7</v>
       </c>
       <c r="L14" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="M14" t="s">
         <v>41</v>
@@ -3766,7 +3767,7 @@
         <v>7</v>
       </c>
       <c r="S14" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="T14" t="s">
         <v>41</v>
@@ -3822,7 +3823,7 @@
         <v>3147</v>
       </c>
       <c r="C15" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D15">
         <v>1616</v>
@@ -3870,7 +3871,7 @@
         <v>7</v>
       </c>
       <c r="S15" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="T15" t="s">
         <v>41</v>
@@ -3918,7 +3919,7 @@
         <v>41</v>
       </c>
       <c r="AJ15" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.35">
@@ -3929,7 +3930,7 @@
         <v>3148</v>
       </c>
       <c r="C16" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D16">
         <v>1616</v>
@@ -3977,7 +3978,7 @@
         <v>7</v>
       </c>
       <c r="S16" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="T16" t="s">
         <v>41</v>
@@ -4025,7 +4026,7 @@
         <v>41</v>
       </c>
       <c r="AJ16" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.35">
@@ -4036,7 +4037,7 @@
         <v>3149</v>
       </c>
       <c r="C17" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D17">
         <v>1616</v>
@@ -4084,7 +4085,7 @@
         <v>7</v>
       </c>
       <c r="S17" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="T17" t="s">
         <v>41</v>
@@ -4132,7 +4133,7 @@
         <v>41</v>
       </c>
       <c r="AJ17" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.35">
@@ -4143,7 +4144,7 @@
         <v>3150</v>
       </c>
       <c r="C18" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D18">
         <v>1616</v>
@@ -4191,7 +4192,7 @@
         <v>7</v>
       </c>
       <c r="S18" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="T18" t="s">
         <v>41</v>
@@ -4239,7 +4240,7 @@
         <v>41</v>
       </c>
       <c r="AJ18" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:36" x14ac:dyDescent="0.35">
@@ -4458,7 +4459,7 @@
         <v>3154</v>
       </c>
       <c r="C21" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D21">
         <v>1616</v>
@@ -4488,7 +4489,7 @@
         <v>253</v>
       </c>
       <c r="M21" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N21" t="s">
         <v>43</v>
@@ -4509,7 +4510,7 @@
         <v>253</v>
       </c>
       <c r="T21" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="U21" t="s">
         <v>43</v>
@@ -4530,7 +4531,7 @@
         <v>253</v>
       </c>
       <c r="AA21" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AB21" t="s">
         <v>43</v>
@@ -4551,7 +4552,7 @@
         <v>253</v>
       </c>
       <c r="AH21" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.35">
@@ -4562,7 +4563,7 @@
         <v>3155</v>
       </c>
       <c r="C22" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D22">
         <v>1616</v>
@@ -4610,7 +4611,7 @@
         <v>7</v>
       </c>
       <c r="S22" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="T22" t="s">
         <v>41</v>
@@ -4658,7 +4659,7 @@
         <v>41</v>
       </c>
       <c r="AJ22" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:36" x14ac:dyDescent="0.35">
@@ -4669,7 +4670,7 @@
         <v>3156</v>
       </c>
       <c r="C23" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D23">
         <v>1616</v>
@@ -4717,7 +4718,7 @@
         <v>7</v>
       </c>
       <c r="S23" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="T23" t="s">
         <v>41</v>
@@ -4773,7 +4774,7 @@
         <v>3157</v>
       </c>
       <c r="C24" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D24">
         <v>1616</v>
@@ -4821,7 +4822,7 @@
         <v>7</v>
       </c>
       <c r="S24" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="T24" t="s">
         <v>41</v>
@@ -4877,7 +4878,7 @@
         <v>3158</v>
       </c>
       <c r="C25" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D25">
         <v>1616</v>
@@ -4981,7 +4982,7 @@
         <v>3159</v>
       </c>
       <c r="C26" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D26">
         <v>1616</v>
@@ -5029,7 +5030,7 @@
         <v>7</v>
       </c>
       <c r="S26" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="T26" t="s">
         <v>41</v>
@@ -5077,7 +5078,7 @@
         <v>41</v>
       </c>
       <c r="AJ26" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="27" spans="1:36" x14ac:dyDescent="0.35">
@@ -5088,7 +5089,7 @@
         <v>1617</v>
       </c>
       <c r="C27" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D27">
         <v>1616</v>
@@ -5192,7 +5193,7 @@
         <v>3160</v>
       </c>
       <c r="C28" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D28">
         <v>1616</v>
@@ -5240,7 +5241,7 @@
         <v>7</v>
       </c>
       <c r="S28" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="T28" t="s">
         <v>41</v>
@@ -5288,7 +5289,7 @@
         <v>41</v>
       </c>
       <c r="AJ28" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="29" spans="1:36" x14ac:dyDescent="0.35">
@@ -5299,7 +5300,7 @@
         <v>3161</v>
       </c>
       <c r="C29" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D29">
         <v>1616</v>
@@ -5347,7 +5348,7 @@
         <v>7</v>
       </c>
       <c r="S29" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="T29" t="s">
         <v>41</v>
@@ -5403,7 +5404,7 @@
         <v>3162</v>
       </c>
       <c r="C30" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D30">
         <v>1616</v>
@@ -5611,7 +5612,7 @@
         <v>3522</v>
       </c>
       <c r="C32" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="D32">
         <v>1616</v>
@@ -5659,7 +5660,7 @@
         <v>7</v>
       </c>
       <c r="S32" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="T32" t="s">
         <v>41</v>
@@ -5819,7 +5820,7 @@
         <v>3165</v>
       </c>
       <c r="C34" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D34">
         <v>1616</v>
@@ -5867,7 +5868,7 @@
         <v>7</v>
       </c>
       <c r="S34" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="T34" t="s">
         <v>41</v>
@@ -5915,7 +5916,7 @@
         <v>41</v>
       </c>
       <c r="AJ34" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="35" spans="1:36" x14ac:dyDescent="0.35">
@@ -5926,7 +5927,7 @@
         <v>3166</v>
       </c>
       <c r="C35" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D35">
         <v>1616</v>
@@ -6030,7 +6031,7 @@
         <v>3167</v>
       </c>
       <c r="C36" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D36">
         <v>1616</v>
@@ -6078,7 +6079,7 @@
         <v>7</v>
       </c>
       <c r="S36" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="T36" t="s">
         <v>41</v>
@@ -6238,7 +6239,7 @@
         <v>3523</v>
       </c>
       <c r="C38" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="D38">
         <v>1616</v>
@@ -6286,7 +6287,7 @@
         <v>7</v>
       </c>
       <c r="S38" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="T38" t="s">
         <v>41</v>
@@ -6342,7 +6343,7 @@
         <v>3169</v>
       </c>
       <c r="C39" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D39">
         <v>1616</v>
@@ -6390,7 +6391,7 @@
         <v>7</v>
       </c>
       <c r="S39" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="T39" t="s">
         <v>41</v>
@@ -6654,7 +6655,7 @@
         <v>3173</v>
       </c>
       <c r="C42" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D42">
         <v>1616</v>
@@ -6702,7 +6703,7 @@
         <v>7</v>
       </c>
       <c r="S42" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="T42" t="s">
         <v>41</v>
@@ -6758,7 +6759,7 @@
         <v>3174</v>
       </c>
       <c r="C43" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D43">
         <v>1616</v>
@@ -6862,7 +6863,7 @@
         <v>4037</v>
       </c>
       <c r="C44" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D44">
         <v>1616</v>
@@ -6966,7 +6967,7 @@
         <v>3528</v>
       </c>
       <c r="C45" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="D45">
         <v>1616</v>
@@ -7014,7 +7015,7 @@
         <v>7</v>
       </c>
       <c r="S45" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="T45" t="s">
         <v>41</v>
@@ -7070,7 +7071,7 @@
         <v>3527</v>
       </c>
       <c r="C46" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="D46">
         <v>1616</v>
@@ -7118,7 +7119,7 @@
         <v>7</v>
       </c>
       <c r="S46" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="T46" t="s">
         <v>41</v>
@@ -7278,7 +7279,7 @@
         <v>3047</v>
       </c>
       <c r="C48" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D48">
         <v>3046</v>
@@ -7382,7 +7383,7 @@
         <v>3048</v>
       </c>
       <c r="C49" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D49">
         <v>3046</v>
@@ -7486,7 +7487,7 @@
         <v>3138</v>
       </c>
       <c r="C50" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D50">
         <v>1616</v>
@@ -7534,7 +7535,7 @@
         <v>7</v>
       </c>
       <c r="S50" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="T50" t="s">
         <v>41</v>
@@ -7590,7 +7591,7 @@
         <v>3175</v>
       </c>
       <c r="C51" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D51">
         <v>1616</v>
@@ -7638,7 +7639,7 @@
         <v>7</v>
       </c>
       <c r="S51" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="T51" t="s">
         <v>41</v>
@@ -7694,7 +7695,7 @@
         <v>3176</v>
       </c>
       <c r="C52" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D52">
         <v>1616</v>
@@ -7742,7 +7743,7 @@
         <v>7</v>
       </c>
       <c r="S52" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="T52" t="s">
         <v>41</v>
@@ -7798,7 +7799,7 @@
         <v>3177</v>
       </c>
       <c r="C53" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D53">
         <v>1616</v>
@@ -7825,7 +7826,7 @@
         <v>7</v>
       </c>
       <c r="L53" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M53" t="s">
         <v>41</v>
@@ -7902,7 +7903,7 @@
         <v>3178</v>
       </c>
       <c r="C54" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D54">
         <v>1616</v>
@@ -8006,7 +8007,7 @@
         <v>3179</v>
       </c>
       <c r="C55" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D55">
         <v>1616</v>
@@ -8054,7 +8055,7 @@
         <v>7</v>
       </c>
       <c r="S55" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="T55" t="s">
         <v>41</v>
@@ -8110,7 +8111,7 @@
         <v>3180</v>
       </c>
       <c r="C56" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D56">
         <v>3179</v>
@@ -8158,7 +8159,7 @@
         <v>7</v>
       </c>
       <c r="S56" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="T56" t="s">
         <v>41</v>
@@ -8214,7 +8215,7 @@
         <v>3181</v>
       </c>
       <c r="C57" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D57">
         <v>1616</v>
@@ -8241,7 +8242,7 @@
         <v>7</v>
       </c>
       <c r="L57" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="M57" t="s">
         <v>41</v>
@@ -8318,7 +8319,7 @@
         <v>3182</v>
       </c>
       <c r="C58" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D58">
         <v>1616</v>
@@ -8366,7 +8367,7 @@
         <v>7</v>
       </c>
       <c r="S58" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="T58" t="s">
         <v>41</v>
@@ -8414,7 +8415,7 @@
         <v>41</v>
       </c>
       <c r="AJ58" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="59" spans="1:36" x14ac:dyDescent="0.35">
@@ -8425,7 +8426,7 @@
         <v>3207</v>
       </c>
       <c r="C59" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D59">
         <v>3182</v>
@@ -8473,7 +8474,7 @@
         <v>7</v>
       </c>
       <c r="S59" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="T59" t="s">
         <v>41</v>
@@ -8529,7 +8530,7 @@
         <v>3208</v>
       </c>
       <c r="C60" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="D60">
         <v>3207</v>
@@ -8577,7 +8578,7 @@
         <v>7</v>
       </c>
       <c r="S60" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="T60" t="s">
         <v>41</v>
@@ -8633,7 +8634,7 @@
         <v>3210</v>
       </c>
       <c r="C61" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="D61">
         <v>3207</v>
@@ -8681,7 +8682,7 @@
         <v>7</v>
       </c>
       <c r="S61" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="T61" t="s">
         <v>41</v>
@@ -8737,7 +8738,7 @@
         <v>3209</v>
       </c>
       <c r="C62" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D62">
         <v>3207</v>
@@ -8785,7 +8786,7 @@
         <v>7</v>
       </c>
       <c r="S62" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="T62" t="s">
         <v>41</v>
@@ -8841,7 +8842,7 @@
         <v>3190</v>
       </c>
       <c r="C63" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D63">
         <v>3182</v>
@@ -8889,7 +8890,7 @@
         <v>7</v>
       </c>
       <c r="S63" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="T63" t="s">
         <v>41</v>
@@ -8945,7 +8946,7 @@
         <v>3191</v>
       </c>
       <c r="C64" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D64">
         <v>3182</v>
@@ -8993,7 +8994,7 @@
         <v>7</v>
       </c>
       <c r="S64" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="T64" t="s">
         <v>41</v>
@@ -9049,7 +9050,7 @@
         <v>3192</v>
       </c>
       <c r="C65" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="D65">
         <v>3191</v>
@@ -9097,7 +9098,7 @@
         <v>7</v>
       </c>
       <c r="S65" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="T65" t="s">
         <v>41</v>
@@ -9153,7 +9154,7 @@
         <v>3194</v>
       </c>
       <c r="C66" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="D66">
         <v>3191</v>
@@ -9201,7 +9202,7 @@
         <v>7</v>
       </c>
       <c r="S66" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="T66" t="s">
         <v>41</v>
@@ -9257,7 +9258,7 @@
         <v>3193</v>
       </c>
       <c r="C67" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="D67">
         <v>3191</v>
@@ -9305,7 +9306,7 @@
         <v>7</v>
       </c>
       <c r="S67" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="T67" t="s">
         <v>41</v>
@@ -9361,7 +9362,7 @@
         <v>3184</v>
       </c>
       <c r="C68" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D68">
         <v>3182</v>
@@ -9409,7 +9410,7 @@
         <v>7</v>
       </c>
       <c r="S68" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="T68" t="s">
         <v>41</v>
@@ -9465,7 +9466,7 @@
         <v>3185</v>
       </c>
       <c r="C69" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D69">
         <v>3184</v>
@@ -9513,7 +9514,7 @@
         <v>7</v>
       </c>
       <c r="S69" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="T69" t="s">
         <v>41</v>
@@ -9561,7 +9562,7 @@
         <v>41</v>
       </c>
       <c r="AJ69" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="70" spans="1:36" x14ac:dyDescent="0.35">
@@ -9572,7 +9573,7 @@
         <v>3186</v>
       </c>
       <c r="C70" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D70">
         <v>3184</v>
@@ -9620,7 +9621,7 @@
         <v>7</v>
       </c>
       <c r="S70" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="T70" t="s">
         <v>41</v>
@@ -9668,7 +9669,7 @@
         <v>41</v>
       </c>
       <c r="AJ70" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="71" spans="1:36" x14ac:dyDescent="0.35">
@@ -9679,7 +9680,7 @@
         <v>3187</v>
       </c>
       <c r="C71" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D71">
         <v>3182</v>
@@ -9727,7 +9728,7 @@
         <v>7</v>
       </c>
       <c r="S71" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="T71" t="s">
         <v>41</v>
@@ -9783,7 +9784,7 @@
         <v>3188</v>
       </c>
       <c r="C72" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D72">
         <v>3187</v>
@@ -9831,7 +9832,7 @@
         <v>7</v>
       </c>
       <c r="S72" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="T72" t="s">
         <v>41</v>
@@ -9879,7 +9880,7 @@
         <v>41</v>
       </c>
       <c r="AJ72" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="73" spans="1:36" x14ac:dyDescent="0.35">
@@ -9890,7 +9891,7 @@
         <v>3189</v>
       </c>
       <c r="C73" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D73">
         <v>3187</v>
@@ -9938,7 +9939,7 @@
         <v>7</v>
       </c>
       <c r="S73" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="T73" t="s">
         <v>41</v>
@@ -9986,7 +9987,7 @@
         <v>41</v>
       </c>
       <c r="AJ73" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="74" spans="1:36" x14ac:dyDescent="0.35">
@@ -9997,7 +9998,7 @@
         <v>3195</v>
       </c>
       <c r="C74" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D74">
         <v>3182</v>
@@ -10045,7 +10046,7 @@
         <v>7</v>
       </c>
       <c r="S74" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="T74" t="s">
         <v>41</v>
@@ -10101,7 +10102,7 @@
         <v>3196</v>
       </c>
       <c r="C75" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="D75">
         <v>3195</v>
@@ -10149,7 +10150,7 @@
         <v>7</v>
       </c>
       <c r="S75" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="T75" t="s">
         <v>41</v>
@@ -10205,7 +10206,7 @@
         <v>3198</v>
       </c>
       <c r="C76" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="D76">
         <v>3195</v>
@@ -10253,7 +10254,7 @@
         <v>7</v>
       </c>
       <c r="S76" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="T76" t="s">
         <v>41</v>
@@ -10309,7 +10310,7 @@
         <v>3197</v>
       </c>
       <c r="C77" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="D77">
         <v>3195</v>
@@ -10357,7 +10358,7 @@
         <v>7</v>
       </c>
       <c r="S77" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="T77" t="s">
         <v>41</v>
@@ -10413,7 +10414,7 @@
         <v>3211</v>
       </c>
       <c r="C78" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D78">
         <v>3182</v>
@@ -10461,7 +10462,7 @@
         <v>7</v>
       </c>
       <c r="S78" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="T78" t="s">
         <v>41</v>
@@ -10517,7 +10518,7 @@
         <v>3203</v>
       </c>
       <c r="C79" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D79">
         <v>3182</v>
@@ -10565,7 +10566,7 @@
         <v>7</v>
       </c>
       <c r="S79" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="T79" t="s">
         <v>41</v>
@@ -10621,7 +10622,7 @@
         <v>3204</v>
       </c>
       <c r="C80" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="D80">
         <v>3203</v>
@@ -10669,7 +10670,7 @@
         <v>7</v>
       </c>
       <c r="S80" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="T80" t="s">
         <v>41</v>
@@ -10725,7 +10726,7 @@
         <v>3206</v>
       </c>
       <c r="C81" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="D81">
         <v>3203</v>
@@ -10773,7 +10774,7 @@
         <v>7</v>
       </c>
       <c r="S81" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="T81" t="s">
         <v>41</v>
@@ -10829,7 +10830,7 @@
         <v>3205</v>
       </c>
       <c r="C82" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="D82">
         <v>3203</v>
@@ -10877,7 +10878,7 @@
         <v>7</v>
       </c>
       <c r="S82" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="T82" t="s">
         <v>41</v>
@@ -10933,7 +10934,7 @@
         <v>3199</v>
       </c>
       <c r="C83" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D83">
         <v>3182</v>
@@ -10981,7 +10982,7 @@
         <v>7</v>
       </c>
       <c r="S83" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="T83" t="s">
         <v>41</v>
@@ -11037,7 +11038,7 @@
         <v>3200</v>
       </c>
       <c r="C84" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D84">
         <v>3199</v>
@@ -11085,7 +11086,7 @@
         <v>7</v>
       </c>
       <c r="S84" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="T84" t="s">
         <v>41</v>
@@ -11141,7 +11142,7 @@
         <v>3202</v>
       </c>
       <c r="C85" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="D85">
         <v>3199</v>
@@ -11189,7 +11190,7 @@
         <v>7</v>
       </c>
       <c r="S85" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="T85" t="s">
         <v>41</v>
@@ -11245,7 +11246,7 @@
         <v>3201</v>
       </c>
       <c r="C86" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="D86">
         <v>3199</v>
@@ -11293,7 +11294,7 @@
         <v>7</v>
       </c>
       <c r="S86" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="T86" t="s">
         <v>41</v>
@@ -11349,7 +11350,7 @@
         <v>3183</v>
       </c>
       <c r="C87" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D87">
         <v>3182</v>
@@ -11453,7 +11454,7 @@
         <v>3212</v>
       </c>
       <c r="C88" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D88">
         <v>1616</v>
@@ -11501,7 +11502,7 @@
         <v>7</v>
       </c>
       <c r="S88" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="T88" t="s">
         <v>41</v>
@@ -11557,7 +11558,7 @@
         <v>4036</v>
       </c>
       <c r="C89" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D89">
         <v>1616</v>
@@ -11661,7 +11662,7 @@
         <v>1611</v>
       </c>
       <c r="C90" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E90" t="s">
         <v>38</v>
@@ -11762,7 +11763,7 @@
         <v>1633</v>
       </c>
       <c r="C91" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E91" t="s">
         <v>38</v>
@@ -11863,7 +11864,7 @@
         <v>1626</v>
       </c>
       <c r="C92" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E92" t="s">
         <v>38</v>
@@ -11964,7 +11965,7 @@
         <v>1606</v>
       </c>
       <c r="C93" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E93" t="s">
         <v>38</v>
@@ -12065,7 +12066,7 @@
         <v>1607</v>
       </c>
       <c r="C94" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E94" t="s">
         <v>38</v>
@@ -12166,7 +12167,7 @@
         <v>1608</v>
       </c>
       <c r="C95" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E95" t="s">
         <v>38</v>
@@ -12267,7 +12268,7 @@
         <v>3334</v>
       </c>
       <c r="C96" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="E96" t="s">
         <v>38</v>
@@ -12312,7 +12313,7 @@
         <v>7</v>
       </c>
       <c r="S96" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="T96" t="s">
         <v>41</v>
@@ -12360,7 +12361,7 @@
         <v>41</v>
       </c>
       <c r="AJ96" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="97" spans="1:36" x14ac:dyDescent="0.35">
@@ -12371,7 +12372,7 @@
         <v>3335</v>
       </c>
       <c r="C97" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="E97" t="s">
         <v>38</v>
@@ -12416,7 +12417,7 @@
         <v>7</v>
       </c>
       <c r="S97" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="T97" t="s">
         <v>41</v>
@@ -12464,7 +12465,7 @@
         <v>41</v>
       </c>
       <c r="AJ97" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="98" spans="1:36" x14ac:dyDescent="0.35">
@@ -12475,7 +12476,7 @@
         <v>3336</v>
       </c>
       <c r="C98" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="E98" t="s">
         <v>38</v>
@@ -12520,7 +12521,7 @@
         <v>7</v>
       </c>
       <c r="S98" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="T98" t="s">
         <v>41</v>
@@ -12568,7 +12569,7 @@
         <v>41</v>
       </c>
       <c r="AJ98" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="99" spans="1:36" x14ac:dyDescent="0.35">
@@ -12579,7 +12580,7 @@
         <v>3337</v>
       </c>
       <c r="C99" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="E99" t="s">
         <v>38</v>
@@ -12624,7 +12625,7 @@
         <v>7</v>
       </c>
       <c r="S99" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="T99" t="s">
         <v>41</v>
@@ -12672,7 +12673,7 @@
         <v>41</v>
       </c>
       <c r="AJ99" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="100" spans="1:36" x14ac:dyDescent="0.35">
@@ -12683,7 +12684,7 @@
         <v>3338</v>
       </c>
       <c r="C100" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="E100" t="s">
         <v>38</v>
@@ -12728,7 +12729,7 @@
         <v>7</v>
       </c>
       <c r="S100" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="T100" t="s">
         <v>41</v>
@@ -12776,7 +12777,7 @@
         <v>41</v>
       </c>
       <c r="AJ100" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="101" spans="1:36" x14ac:dyDescent="0.35">
@@ -12787,7 +12788,7 @@
         <v>3339</v>
       </c>
       <c r="C101" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="E101" t="s">
         <v>38</v>
@@ -12832,7 +12833,7 @@
         <v>7</v>
       </c>
       <c r="S101" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="T101" t="s">
         <v>41</v>
@@ -12880,7 +12881,7 @@
         <v>41</v>
       </c>
       <c r="AJ101" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="102" spans="1:36" x14ac:dyDescent="0.35">
@@ -12891,7 +12892,7 @@
         <v>3340</v>
       </c>
       <c r="C102" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="E102" t="s">
         <v>38</v>
@@ -12936,7 +12937,7 @@
         <v>7</v>
       </c>
       <c r="S102" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="T102" t="s">
         <v>41</v>
@@ -12984,7 +12985,7 @@
         <v>41</v>
       </c>
       <c r="AJ102" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="103" spans="1:36" x14ac:dyDescent="0.35">
@@ -12995,7 +12996,7 @@
         <v>1609</v>
       </c>
       <c r="C103" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E103" t="s">
         <v>38</v>
@@ -13096,7 +13097,7 @@
         <v>3023</v>
       </c>
       <c r="C104" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E104" t="s">
         <v>38</v>
@@ -13197,7 +13198,7 @@
         <v>3450</v>
       </c>
       <c r="C105" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="E105" t="s">
         <v>38</v>
@@ -13298,7 +13299,7 @@
         <v>1631</v>
       </c>
       <c r="C106" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E106" t="s">
         <v>38</v>
@@ -13399,7 +13400,7 @@
         <v>1612</v>
       </c>
       <c r="C107" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E107" t="s">
         <v>38</v>
@@ -13500,7 +13501,7 @@
         <v>1613</v>
       </c>
       <c r="C108" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D108">
         <v>1612</v>
@@ -13604,7 +13605,7 @@
         <v>1614</v>
       </c>
       <c r="C109" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D109">
         <v>1612</v>
@@ -13708,7 +13709,7 @@
         <v>1627</v>
       </c>
       <c r="C110" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E110" t="s">
         <v>38</v>
@@ -13809,7 +13810,7 @@
         <v>1629</v>
       </c>
       <c r="C111" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D111">
         <v>1627</v>
@@ -13913,7 +13914,7 @@
         <v>1628</v>
       </c>
       <c r="C112" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D112">
         <v>1627</v>
@@ -14118,7 +14119,7 @@
         <v>1624</v>
       </c>
       <c r="C114" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E114" t="s">
         <v>38</v>
@@ -14219,7 +14220,7 @@
         <v>2545</v>
       </c>
       <c r="C115" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E115" t="s">
         <v>38</v>
@@ -14320,7 +14321,7 @@
         <v>2546</v>
       </c>
       <c r="C116" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D116">
         <v>2545</v>
@@ -14424,7 +14425,7 @@
         <v>1621</v>
       </c>
       <c r="C117" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E117" t="s">
         <v>38</v>
@@ -14525,7 +14526,7 @@
         <v>3264</v>
       </c>
       <c r="C118" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="E118" t="s">
         <v>38</v>
@@ -14570,7 +14571,7 @@
         <v>7</v>
       </c>
       <c r="S118" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="T118" t="s">
         <v>41</v>
@@ -14626,7 +14627,7 @@
         <v>3265</v>
       </c>
       <c r="C119" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D119">
         <v>3264</v>
@@ -14674,7 +14675,7 @@
         <v>7</v>
       </c>
       <c r="S119" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="T119" t="s">
         <v>41</v>
@@ -14722,7 +14723,7 @@
         <v>41</v>
       </c>
       <c r="AJ119" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="120" spans="1:36" x14ac:dyDescent="0.35">
@@ -14733,7 +14734,7 @@
         <v>3266</v>
       </c>
       <c r="C120" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D120">
         <v>3265</v>
@@ -14781,7 +14782,7 @@
         <v>7</v>
       </c>
       <c r="S120" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="T120" t="s">
         <v>41</v>
@@ -14829,7 +14830,7 @@
         <v>41</v>
       </c>
       <c r="AJ120" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="121" spans="1:36" x14ac:dyDescent="0.35">
@@ -14840,7 +14841,7 @@
         <v>3267</v>
       </c>
       <c r="C121" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D121">
         <v>3264</v>
@@ -14888,7 +14889,7 @@
         <v>7</v>
       </c>
       <c r="S121" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="T121" t="s">
         <v>41</v>
@@ -14936,7 +14937,7 @@
         <v>41</v>
       </c>
       <c r="AJ121" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="122" spans="1:36" x14ac:dyDescent="0.35">
@@ -14947,7 +14948,7 @@
         <v>3268</v>
       </c>
       <c r="C122" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D122">
         <v>3264</v>
@@ -14995,7 +14996,7 @@
         <v>7</v>
       </c>
       <c r="S122" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="T122" t="s">
         <v>41</v>
@@ -15051,7 +15052,7 @@
         <v>3269</v>
       </c>
       <c r="C123" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D123">
         <v>3268</v>
@@ -15099,7 +15100,7 @@
         <v>7</v>
       </c>
       <c r="S123" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="T123" t="s">
         <v>41</v>
@@ -15155,7 +15156,7 @@
         <v>3270</v>
       </c>
       <c r="C124" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="D124">
         <v>3269</v>
@@ -15203,7 +15204,7 @@
         <v>7</v>
       </c>
       <c r="S124" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="T124" t="s">
         <v>41</v>
@@ -15259,7 +15260,7 @@
         <v>3271</v>
       </c>
       <c r="C125" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="D125">
         <v>3264</v>
@@ -15286,7 +15287,7 @@
         <v>7</v>
       </c>
       <c r="L125" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="M125" t="s">
         <v>41</v>
@@ -15355,7 +15356,7 @@
         <v>41</v>
       </c>
       <c r="AJ125" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="126" spans="1:36" x14ac:dyDescent="0.35">
@@ -15366,7 +15367,7 @@
         <v>3272</v>
       </c>
       <c r="C126" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D126">
         <v>3271</v>
@@ -15414,7 +15415,7 @@
         <v>7</v>
       </c>
       <c r="S126" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="T126" t="s">
         <v>41</v>
@@ -15462,7 +15463,7 @@
         <v>41</v>
       </c>
       <c r="AJ126" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="127" spans="1:36" x14ac:dyDescent="0.35">
@@ -15473,7 +15474,7 @@
         <v>3273</v>
       </c>
       <c r="C127" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D127">
         <v>3271</v>
@@ -15521,7 +15522,7 @@
         <v>7</v>
       </c>
       <c r="S127" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="T127" t="s">
         <v>41</v>
@@ -15569,7 +15570,7 @@
         <v>41</v>
       </c>
       <c r="AJ127" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="128" spans="1:36" x14ac:dyDescent="0.35">
@@ -15580,7 +15581,7 @@
         <v>3274</v>
       </c>
       <c r="C128" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D128">
         <v>3273</v>
@@ -15684,7 +15685,7 @@
         <v>3275</v>
       </c>
       <c r="C129" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="D129">
         <v>3273</v>
@@ -15732,7 +15733,7 @@
         <v>7</v>
       </c>
       <c r="S129" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="T129" t="s">
         <v>41</v>
@@ -15788,7 +15789,7 @@
         <v>3276</v>
       </c>
       <c r="C130" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="D130">
         <v>3273</v>
@@ -15836,7 +15837,7 @@
         <v>7</v>
       </c>
       <c r="S130" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="T130" t="s">
         <v>41</v>
@@ -15892,7 +15893,7 @@
         <v>1623</v>
       </c>
       <c r="C131" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D131">
         <v>3264</v>
@@ -15996,7 +15997,7 @@
         <v>3442</v>
       </c>
       <c r="C132" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D132">
         <v>3264</v>
@@ -16023,7 +16024,7 @@
         <v>7</v>
       </c>
       <c r="L132" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M132" t="s">
         <v>41</v>
@@ -16204,7 +16205,7 @@
         <v>3277</v>
       </c>
       <c r="C134" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D134">
         <v>3264</v>
@@ -16252,7 +16253,7 @@
         <v>7</v>
       </c>
       <c r="S134" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="T134" t="s">
         <v>41</v>
@@ -16308,7 +16309,7 @@
         <v>3278</v>
       </c>
       <c r="C135" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D135">
         <v>3264</v>
@@ -16412,7 +16413,7 @@
         <v>3283</v>
       </c>
       <c r="C136" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D136">
         <v>3278</v>
@@ -16460,7 +16461,7 @@
         <v>7</v>
       </c>
       <c r="S136" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="T136" t="s">
         <v>41</v>
@@ -16508,7 +16509,7 @@
         <v>41</v>
       </c>
       <c r="AJ136" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="137" spans="1:36" x14ac:dyDescent="0.35">
@@ -16519,7 +16520,7 @@
         <v>3281</v>
       </c>
       <c r="C137" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D137">
         <v>3278</v>
@@ -16567,7 +16568,7 @@
         <v>7</v>
       </c>
       <c r="S137" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="T137" t="s">
         <v>41</v>
@@ -16615,7 +16616,7 @@
         <v>41</v>
       </c>
       <c r="AJ137" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="138" spans="1:36" x14ac:dyDescent="0.35">
@@ -16626,7 +16627,7 @@
         <v>3280</v>
       </c>
       <c r="C138" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D138">
         <v>3278</v>
@@ -16674,7 +16675,7 @@
         <v>7</v>
       </c>
       <c r="S138" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="T138" t="s">
         <v>41</v>
@@ -16722,7 +16723,7 @@
         <v>41</v>
       </c>
       <c r="AJ138" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="139" spans="1:36" x14ac:dyDescent="0.35">
@@ -16733,7 +16734,7 @@
         <v>3282</v>
       </c>
       <c r="C139" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D139">
         <v>3278</v>
@@ -16781,7 +16782,7 @@
         <v>7</v>
       </c>
       <c r="S139" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="T139" t="s">
         <v>41</v>
@@ -16829,7 +16830,7 @@
         <v>41</v>
       </c>
       <c r="AJ139" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="140" spans="1:36" x14ac:dyDescent="0.35">
@@ -16840,7 +16841,7 @@
         <v>3279</v>
       </c>
       <c r="C140" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D140">
         <v>3278</v>
@@ -16888,7 +16889,7 @@
         <v>7</v>
       </c>
       <c r="S140" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="T140" t="s">
         <v>41</v>
@@ -16936,7 +16937,7 @@
         <v>41</v>
       </c>
       <c r="AJ140" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="141" spans="1:36" x14ac:dyDescent="0.35">
@@ -16947,7 +16948,7 @@
         <v>3284</v>
       </c>
       <c r="C141" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D141">
         <v>3278</v>
@@ -16995,7 +16996,7 @@
         <v>7</v>
       </c>
       <c r="S141" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="T141" t="s">
         <v>41</v>
@@ -17043,7 +17044,7 @@
         <v>41</v>
       </c>
       <c r="AJ141" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="142" spans="1:36" x14ac:dyDescent="0.35">
@@ -17054,7 +17055,7 @@
         <v>3285</v>
       </c>
       <c r="C142" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D142">
         <v>3284</v>
@@ -17102,7 +17103,7 @@
         <v>7</v>
       </c>
       <c r="S142" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="T142" t="s">
         <v>41</v>
@@ -17150,7 +17151,7 @@
         <v>41</v>
       </c>
       <c r="AJ142" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="143" spans="1:36" x14ac:dyDescent="0.35">
@@ -17265,7 +17266,7 @@
         <v>3287</v>
       </c>
       <c r="C144" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D144">
         <v>3264</v>
@@ -17313,7 +17314,7 @@
         <v>7</v>
       </c>
       <c r="S144" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="T144" t="s">
         <v>41</v>
@@ -17361,7 +17362,7 @@
         <v>41</v>
       </c>
       <c r="AJ144" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="145" spans="1:36" x14ac:dyDescent="0.35">
@@ -17372,7 +17373,7 @@
         <v>3288</v>
       </c>
       <c r="C145" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D145">
         <v>3264</v>
@@ -17420,7 +17421,7 @@
         <v>7</v>
       </c>
       <c r="S145" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="T145" t="s">
         <v>41</v>
@@ -17468,7 +17469,7 @@
         <v>41</v>
       </c>
       <c r="AJ145" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="146" spans="1:36" x14ac:dyDescent="0.35">
@@ -17479,7 +17480,7 @@
         <v>3289</v>
       </c>
       <c r="C146" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D146">
         <v>3288</v>
@@ -17527,7 +17528,7 @@
         <v>7</v>
       </c>
       <c r="S146" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="T146" t="s">
         <v>41</v>
@@ -17575,7 +17576,7 @@
         <v>41</v>
       </c>
       <c r="AJ146" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="147" spans="1:36" x14ac:dyDescent="0.35">
@@ -17586,7 +17587,7 @@
         <v>3530</v>
       </c>
       <c r="C147" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D147">
         <v>3264</v>
@@ -17613,7 +17614,7 @@
         <v>7</v>
       </c>
       <c r="L147" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="M147" t="s">
         <v>41</v>
@@ -17634,7 +17635,7 @@
         <v>7</v>
       </c>
       <c r="S147" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="T147" t="s">
         <v>41</v>
@@ -17690,7 +17691,7 @@
         <v>3290</v>
       </c>
       <c r="C148" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D148">
         <v>3264</v>
@@ -17717,7 +17718,7 @@
         <v>7</v>
       </c>
       <c r="L148" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M148" t="s">
         <v>41</v>
@@ -17738,7 +17739,7 @@
         <v>7</v>
       </c>
       <c r="S148" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="T148" t="s">
         <v>41</v>
@@ -17794,7 +17795,7 @@
         <v>3291</v>
       </c>
       <c r="C149" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D149">
         <v>3290</v>
@@ -17821,7 +17822,7 @@
         <v>7</v>
       </c>
       <c r="L149" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M149" t="s">
         <v>41</v>
@@ -17842,7 +17843,7 @@
         <v>7</v>
       </c>
       <c r="S149" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="T149" t="s">
         <v>41</v>
@@ -17898,7 +17899,7 @@
         <v>3292</v>
       </c>
       <c r="C150" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="D150">
         <v>3291</v>
@@ -17946,7 +17947,7 @@
         <v>7</v>
       </c>
       <c r="S150" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="T150" t="s">
         <v>41</v>
@@ -18002,7 +18003,7 @@
         <v>3520</v>
       </c>
       <c r="C151" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="D151">
         <v>3290</v>
@@ -18029,7 +18030,7 @@
         <v>7</v>
       </c>
       <c r="L151" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M151" t="s">
         <v>41</v>
@@ -18050,7 +18051,7 @@
         <v>7</v>
       </c>
       <c r="S151" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="T151" t="s">
         <v>41</v>
@@ -18106,7 +18107,7 @@
         <v>3443</v>
       </c>
       <c r="C152" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D152">
         <v>3290</v>
@@ -18133,7 +18134,7 @@
         <v>7</v>
       </c>
       <c r="L152" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M152" t="s">
         <v>41</v>
@@ -18154,7 +18155,7 @@
         <v>7</v>
       </c>
       <c r="S152" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="T152" t="s">
         <v>41</v>
@@ -18210,7 +18211,7 @@
         <v>3293</v>
       </c>
       <c r="C153" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D153">
         <v>3264</v>
@@ -18258,7 +18259,7 @@
         <v>7</v>
       </c>
       <c r="S153" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="T153" t="s">
         <v>41</v>
@@ -18314,7 +18315,7 @@
         <v>3294</v>
       </c>
       <c r="C154" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D154">
         <v>3264</v>
@@ -18362,7 +18363,7 @@
         <v>7</v>
       </c>
       <c r="S154" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="T154" t="s">
         <v>41</v>
@@ -18418,7 +18419,7 @@
         <v>3295</v>
       </c>
       <c r="C155" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D155">
         <v>3264</v>
@@ -18466,7 +18467,7 @@
         <v>7</v>
       </c>
       <c r="S155" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="T155" t="s">
         <v>41</v>
@@ -18522,7 +18523,7 @@
         <v>3296</v>
       </c>
       <c r="C156" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D156">
         <v>3295</v>
@@ -18570,7 +18571,7 @@
         <v>7</v>
       </c>
       <c r="S156" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="T156" t="s">
         <v>41</v>
@@ -18626,7 +18627,7 @@
         <v>3297</v>
       </c>
       <c r="C157" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D157">
         <v>3264</v>
@@ -18674,7 +18675,7 @@
         <v>7</v>
       </c>
       <c r="S157" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="T157" t="s">
         <v>41</v>
@@ -18730,7 +18731,7 @@
         <v>3298</v>
       </c>
       <c r="C158" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D158">
         <v>3297</v>
@@ -18778,7 +18779,7 @@
         <v>7</v>
       </c>
       <c r="S158" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="T158" t="s">
         <v>41</v>
@@ -18834,7 +18835,7 @@
         <v>3299</v>
       </c>
       <c r="C159" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D159">
         <v>3297</v>
@@ -18882,7 +18883,7 @@
         <v>7</v>
       </c>
       <c r="S159" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="T159" t="s">
         <v>41</v>
@@ -18938,7 +18939,7 @@
         <v>3300</v>
       </c>
       <c r="C160" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D160">
         <v>3264</v>
@@ -18986,7 +18987,7 @@
         <v>7</v>
       </c>
       <c r="S160" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="T160" t="s">
         <v>41</v>
@@ -19034,7 +19035,7 @@
         <v>41</v>
       </c>
       <c r="AJ160" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="161" spans="1:36" x14ac:dyDescent="0.35">
@@ -19045,7 +19046,7 @@
         <v>3301</v>
       </c>
       <c r="C161" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D161">
         <v>3264</v>
@@ -19093,7 +19094,7 @@
         <v>7</v>
       </c>
       <c r="S161" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="T161" t="s">
         <v>41</v>
@@ -19141,7 +19142,7 @@
         <v>41</v>
       </c>
       <c r="AJ161" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="162" spans="1:36" x14ac:dyDescent="0.35">
@@ -19152,7 +19153,7 @@
         <v>3302</v>
       </c>
       <c r="C162" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D162">
         <v>3264</v>
@@ -19200,7 +19201,7 @@
         <v>7</v>
       </c>
       <c r="S162" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="T162" t="s">
         <v>41</v>
@@ -19256,7 +19257,7 @@
         <v>3304</v>
       </c>
       <c r="C163" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D163">
         <v>3302</v>
@@ -19304,7 +19305,7 @@
         <v>7</v>
       </c>
       <c r="S163" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="T163" t="s">
         <v>41</v>
@@ -19360,7 +19361,7 @@
         <v>3306</v>
       </c>
       <c r="C164" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D164">
         <v>3302</v>
@@ -19408,7 +19409,7 @@
         <v>7</v>
       </c>
       <c r="S164" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="T164" t="s">
         <v>41</v>
@@ -19464,7 +19465,7 @@
         <v>3309</v>
       </c>
       <c r="C165" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="D165">
         <v>3302</v>
@@ -19512,7 +19513,7 @@
         <v>7</v>
       </c>
       <c r="S165" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="T165" t="s">
         <v>41</v>
@@ -19568,7 +19569,7 @@
         <v>3310</v>
       </c>
       <c r="C166" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D166">
         <v>3302</v>
@@ -19616,7 +19617,7 @@
         <v>7</v>
       </c>
       <c r="S166" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="T166" t="s">
         <v>41</v>
@@ -19672,7 +19673,7 @@
         <v>3311</v>
       </c>
       <c r="C167" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D167">
         <v>3302</v>
@@ -19720,7 +19721,7 @@
         <v>7</v>
       </c>
       <c r="S167" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="T167" t="s">
         <v>41</v>
@@ -19776,7 +19777,7 @@
         <v>3312</v>
       </c>
       <c r="C168" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="D168">
         <v>3302</v>
@@ -19824,7 +19825,7 @@
         <v>7</v>
       </c>
       <c r="S168" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="T168" t="s">
         <v>41</v>
@@ -19880,7 +19881,7 @@
         <v>3308</v>
       </c>
       <c r="C169" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D169">
         <v>3302</v>
@@ -19928,7 +19929,7 @@
         <v>7</v>
       </c>
       <c r="S169" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="T169" t="s">
         <v>41</v>
@@ -19984,7 +19985,7 @@
         <v>3307</v>
       </c>
       <c r="C170" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D170">
         <v>3302</v>
@@ -20032,7 +20033,7 @@
         <v>7</v>
       </c>
       <c r="S170" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="T170" t="s">
         <v>41</v>
@@ -20088,7 +20089,7 @@
         <v>3305</v>
       </c>
       <c r="C171" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D171">
         <v>3302</v>
@@ -20136,7 +20137,7 @@
         <v>7</v>
       </c>
       <c r="S171" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="T171" t="s">
         <v>41</v>
@@ -20192,7 +20193,7 @@
         <v>3303</v>
       </c>
       <c r="C172" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D172">
         <v>3302</v>
@@ -20240,7 +20241,7 @@
         <v>7</v>
       </c>
       <c r="S172" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="T172" t="s">
         <v>41</v>
@@ -20296,7 +20297,7 @@
         <v>3313</v>
       </c>
       <c r="C173" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D173">
         <v>3302</v>
@@ -20344,7 +20345,7 @@
         <v>7</v>
       </c>
       <c r="S173" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="T173" t="s">
         <v>41</v>
@@ -20400,7 +20401,7 @@
         <v>3314</v>
       </c>
       <c r="C174" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D174">
         <v>3302</v>
@@ -20448,7 +20449,7 @@
         <v>7</v>
       </c>
       <c r="S174" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="T174" t="s">
         <v>41</v>
@@ -20504,7 +20505,7 @@
         <v>3328</v>
       </c>
       <c r="C175" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D175">
         <v>3264</v>
@@ -20552,7 +20553,7 @@
         <v>7</v>
       </c>
       <c r="S175" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="T175" t="s">
         <v>41</v>
@@ -20600,7 +20601,7 @@
         <v>41</v>
       </c>
       <c r="AJ175" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="176" spans="1:36" x14ac:dyDescent="0.35">
@@ -20611,7 +20612,7 @@
         <v>3315</v>
       </c>
       <c r="C176" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D176">
         <v>3264</v>
@@ -20659,7 +20660,7 @@
         <v>7</v>
       </c>
       <c r="S176" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="T176" t="s">
         <v>41</v>
@@ -20707,7 +20708,7 @@
         <v>41</v>
       </c>
       <c r="AJ176" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="177" spans="1:36" x14ac:dyDescent="0.35">
@@ -20718,7 +20719,7 @@
         <v>3326</v>
       </c>
       <c r="C177" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D177">
         <v>3315</v>
@@ -20766,7 +20767,7 @@
         <v>7</v>
       </c>
       <c r="S177" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="T177" t="s">
         <v>41</v>
@@ -20814,7 +20815,7 @@
         <v>41</v>
       </c>
       <c r="AJ177" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="178" spans="1:36" x14ac:dyDescent="0.35">
@@ -20825,7 +20826,7 @@
         <v>3327</v>
       </c>
       <c r="C178" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D178">
         <v>3315</v>
@@ -20873,7 +20874,7 @@
         <v>7</v>
       </c>
       <c r="S178" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="T178" t="s">
         <v>41</v>
@@ -20921,7 +20922,7 @@
         <v>41</v>
       </c>
       <c r="AJ178" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="179" spans="1:36" x14ac:dyDescent="0.35">
@@ -20932,7 +20933,7 @@
         <v>3317</v>
       </c>
       <c r="C179" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D179">
         <v>3315</v>
@@ -20980,7 +20981,7 @@
         <v>7</v>
       </c>
       <c r="S179" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="T179" t="s">
         <v>41</v>
@@ -21028,7 +21029,7 @@
         <v>41</v>
       </c>
       <c r="AJ179" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="180" spans="1:36" x14ac:dyDescent="0.35">
@@ -21039,7 +21040,7 @@
         <v>3318</v>
       </c>
       <c r="C180" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D180">
         <v>3317</v>
@@ -21087,7 +21088,7 @@
         <v>7</v>
       </c>
       <c r="S180" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="T180" t="s">
         <v>41</v>
@@ -21135,7 +21136,7 @@
         <v>41</v>
       </c>
       <c r="AJ180" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="181" spans="1:36" x14ac:dyDescent="0.35">
@@ -21146,7 +21147,7 @@
         <v>3325</v>
       </c>
       <c r="C181" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D181">
         <v>3315</v>
@@ -21194,7 +21195,7 @@
         <v>7</v>
       </c>
       <c r="S181" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="T181" t="s">
         <v>41</v>
@@ -21242,7 +21243,7 @@
         <v>41</v>
       </c>
       <c r="AJ181" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="182" spans="1:36" x14ac:dyDescent="0.35">
@@ -21253,7 +21254,7 @@
         <v>3316</v>
       </c>
       <c r="C182" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D182">
         <v>3315</v>
@@ -21301,7 +21302,7 @@
         <v>7</v>
       </c>
       <c r="S182" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="T182" t="s">
         <v>41</v>
@@ -21349,7 +21350,7 @@
         <v>41</v>
       </c>
       <c r="AJ182" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="183" spans="1:36" x14ac:dyDescent="0.35">
@@ -21360,7 +21361,7 @@
         <v>3319</v>
       </c>
       <c r="C183" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D183">
         <v>3315</v>
@@ -21408,7 +21409,7 @@
         <v>7</v>
       </c>
       <c r="S183" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="T183" t="s">
         <v>41</v>
@@ -21456,7 +21457,7 @@
         <v>41</v>
       </c>
       <c r="AJ183" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="184" spans="1:36" x14ac:dyDescent="0.35">
@@ -21467,7 +21468,7 @@
         <v>3321</v>
       </c>
       <c r="C184" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D184">
         <v>3319</v>
@@ -21515,7 +21516,7 @@
         <v>7</v>
       </c>
       <c r="S184" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="T184" t="s">
         <v>41</v>
@@ -21563,7 +21564,7 @@
         <v>41</v>
       </c>
       <c r="AJ184" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="185" spans="1:36" x14ac:dyDescent="0.35">
@@ -21574,7 +21575,7 @@
         <v>3320</v>
       </c>
       <c r="C185" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D185">
         <v>3319</v>
@@ -21622,7 +21623,7 @@
         <v>7</v>
       </c>
       <c r="S185" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="T185" t="s">
         <v>41</v>
@@ -21670,7 +21671,7 @@
         <v>41</v>
       </c>
       <c r="AJ185" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="186" spans="1:36" x14ac:dyDescent="0.35">
@@ -21681,7 +21682,7 @@
         <v>3324</v>
       </c>
       <c r="C186" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D186">
         <v>3315</v>
@@ -21729,7 +21730,7 @@
         <v>7</v>
       </c>
       <c r="S186" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="T186" t="s">
         <v>41</v>
@@ -21777,7 +21778,7 @@
         <v>41</v>
       </c>
       <c r="AJ186" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="187" spans="1:36" x14ac:dyDescent="0.35">
@@ -21788,7 +21789,7 @@
         <v>3322</v>
       </c>
       <c r="C187" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D187">
         <v>3315</v>
@@ -21836,7 +21837,7 @@
         <v>7</v>
       </c>
       <c r="S187" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="T187" t="s">
         <v>41</v>
@@ -21884,7 +21885,7 @@
         <v>41</v>
       </c>
       <c r="AJ187" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="188" spans="1:36" x14ac:dyDescent="0.35">
@@ -21895,7 +21896,7 @@
         <v>3323</v>
       </c>
       <c r="C188" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D188">
         <v>3322</v>
@@ -21943,7 +21944,7 @@
         <v>7</v>
       </c>
       <c r="S188" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="T188" t="s">
         <v>41</v>
@@ -21991,7 +21992,7 @@
         <v>41</v>
       </c>
       <c r="AJ188" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="189" spans="1:36" x14ac:dyDescent="0.35">
@@ -22002,7 +22003,7 @@
         <v>3329</v>
       </c>
       <c r="C189" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D189">
         <v>3264</v>
@@ -22050,7 +22051,7 @@
         <v>7</v>
       </c>
       <c r="S189" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T189" t="s">
         <v>41</v>
@@ -22106,7 +22107,7 @@
         <v>3330</v>
       </c>
       <c r="C190" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="D190">
         <v>3329</v>
@@ -22154,7 +22155,7 @@
         <v>7</v>
       </c>
       <c r="S190" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="T190" t="s">
         <v>41</v>
@@ -22210,7 +22211,7 @@
         <v>3331</v>
       </c>
       <c r="C191" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D191">
         <v>3264</v>
@@ -22258,7 +22259,7 @@
         <v>7</v>
       </c>
       <c r="S191" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="T191" t="s">
         <v>41</v>
@@ -22306,7 +22307,7 @@
         <v>41</v>
       </c>
       <c r="AJ191" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="192" spans="1:36" x14ac:dyDescent="0.35">
@@ -22317,7 +22318,7 @@
         <v>3332</v>
       </c>
       <c r="C192" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D192">
         <v>3264</v>
@@ -22365,7 +22366,7 @@
         <v>7</v>
       </c>
       <c r="S192" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="T192" t="s">
         <v>41</v>
@@ -22421,7 +22422,7 @@
         <v>3333</v>
       </c>
       <c r="C193" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D193">
         <v>3332</v>
@@ -22469,7 +22470,7 @@
         <v>7</v>
       </c>
       <c r="S193" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="T193" t="s">
         <v>41</v>
@@ -22525,7 +22526,7 @@
         <v>1615</v>
       </c>
       <c r="C194" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E194" t="s">
         <v>38</v>
@@ -22730,7 +22731,7 @@
         <v>1610</v>
       </c>
       <c r="C196" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E196" t="s">
         <v>38</v>
@@ -22831,7 +22832,7 @@
         <v>1630</v>
       </c>
       <c r="C197" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="E197" t="s">
         <v>38</v>
@@ -22932,7 +22933,7 @@
         <v>1632</v>
       </c>
       <c r="C198" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E198" t="s">
         <v>38</v>
@@ -23134,7 +23135,7 @@
         <v>3213</v>
       </c>
       <c r="C200" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="D200">
         <v>1619</v>
@@ -23230,7 +23231,7 @@
         <v>41</v>
       </c>
       <c r="AJ200" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="201" spans="1:36" x14ac:dyDescent="0.35">
@@ -23241,7 +23242,7 @@
         <v>3447</v>
       </c>
       <c r="C201" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="D201">
         <v>1619</v>
@@ -23345,7 +23346,7 @@
         <v>3214</v>
       </c>
       <c r="C202" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="D202">
         <v>1619</v>
@@ -23441,7 +23442,7 @@
         <v>41</v>
       </c>
       <c r="AJ202" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="203" spans="1:36" x14ac:dyDescent="0.35">
@@ -23452,7 +23453,7 @@
         <v>3449</v>
       </c>
       <c r="C203" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="D203">
         <v>1619</v>
@@ -23479,7 +23480,7 @@
         <v>160</v>
       </c>
       <c r="L203" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="M203" t="s">
         <v>41</v>
@@ -23556,7 +23557,7 @@
         <v>3215</v>
       </c>
       <c r="C204" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="D204">
         <v>1619</v>
@@ -23652,7 +23653,7 @@
         <v>41</v>
       </c>
       <c r="AJ204" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="205" spans="1:36" x14ac:dyDescent="0.35">
@@ -23663,7 +23664,7 @@
         <v>3216</v>
       </c>
       <c r="C205" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D205">
         <v>3215</v>
@@ -23759,7 +23760,7 @@
         <v>41</v>
       </c>
       <c r="AJ205" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="206" spans="1:36" x14ac:dyDescent="0.35">
@@ -23770,7 +23771,7 @@
         <v>3217</v>
       </c>
       <c r="C206" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="D206">
         <v>1619</v>
@@ -23866,7 +23867,7 @@
         <v>41</v>
       </c>
       <c r="AJ206" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="207" spans="1:36" x14ac:dyDescent="0.35">
@@ -23877,7 +23878,7 @@
         <v>3218</v>
       </c>
       <c r="C207" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="D207">
         <v>1619</v>
@@ -23973,7 +23974,7 @@
         <v>41</v>
       </c>
       <c r="AJ207" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="208" spans="1:36" x14ac:dyDescent="0.35">
@@ -23984,7 +23985,7 @@
         <v>3219</v>
       </c>
       <c r="C208" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D208">
         <v>1619</v>
@@ -24080,7 +24081,7 @@
         <v>41</v>
       </c>
       <c r="AJ208" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="209" spans="1:36" x14ac:dyDescent="0.35">
@@ -24091,7 +24092,7 @@
         <v>3220</v>
       </c>
       <c r="C209" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="D209">
         <v>1619</v>
@@ -24187,7 +24188,7 @@
         <v>41</v>
       </c>
       <c r="AJ209" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="210" spans="1:36" x14ac:dyDescent="0.35">
@@ -24305,7 +24306,7 @@
         <v>3446</v>
       </c>
       <c r="C211" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D211">
         <v>1619</v>
@@ -24409,7 +24410,7 @@
         <v>3221</v>
       </c>
       <c r="C212" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D212">
         <v>1619</v>
@@ -24505,7 +24506,7 @@
         <v>41</v>
       </c>
       <c r="AJ212" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="213" spans="1:36" x14ac:dyDescent="0.35">
@@ -24516,7 +24517,7 @@
         <v>3222</v>
       </c>
       <c r="C213" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D213">
         <v>1619</v>
@@ -24564,7 +24565,7 @@
         <v>7</v>
       </c>
       <c r="S213" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="T213" t="s">
         <v>41</v>
@@ -24620,7 +24621,7 @@
         <v>3223</v>
       </c>
       <c r="C214" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D214">
         <v>1619</v>
@@ -24668,7 +24669,7 @@
         <v>7</v>
       </c>
       <c r="S214" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="T214" t="s">
         <v>41</v>
@@ -24724,7 +24725,7 @@
         <v>3224</v>
       </c>
       <c r="C215" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D215">
         <v>3223</v>
@@ -24772,7 +24773,7 @@
         <v>7</v>
       </c>
       <c r="S215" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="T215" t="s">
         <v>41</v>
@@ -24828,7 +24829,7 @@
         <v>3521</v>
       </c>
       <c r="C216" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="D216">
         <v>1619</v>
@@ -24855,7 +24856,7 @@
         <v>170</v>
       </c>
       <c r="L216" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="M216" t="s">
         <v>41</v>
@@ -24924,7 +24925,7 @@
         <v>41</v>
       </c>
       <c r="AJ216" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="217" spans="1:36" x14ac:dyDescent="0.35">
@@ -24935,7 +24936,7 @@
         <v>1620</v>
       </c>
       <c r="C217" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="E217" t="s">
         <v>38</v>
@@ -24959,7 +24960,7 @@
         <v>7</v>
       </c>
       <c r="L217" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M217" t="s">
         <v>41</v>
@@ -25140,7 +25141,7 @@
         <v>3225</v>
       </c>
       <c r="C219" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D219">
         <v>1620</v>
@@ -25236,7 +25237,7 @@
         <v>41</v>
       </c>
       <c r="AJ219" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="220" spans="1:36" x14ac:dyDescent="0.35">
@@ -25247,7 +25248,7 @@
         <v>3226</v>
       </c>
       <c r="C220" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D220">
         <v>3225</v>
@@ -25343,7 +25344,7 @@
         <v>41</v>
       </c>
       <c r="AJ220" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="221" spans="1:36" x14ac:dyDescent="0.35">
@@ -25354,7 +25355,7 @@
         <v>3227</v>
       </c>
       <c r="C221" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D221">
         <v>1620</v>
@@ -25450,7 +25451,7 @@
         <v>41</v>
       </c>
       <c r="AJ221" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="222" spans="1:36" x14ac:dyDescent="0.35">
@@ -25461,7 +25462,7 @@
         <v>3228</v>
       </c>
       <c r="C222" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D222">
         <v>1620</v>
@@ -25557,7 +25558,7 @@
         <v>41</v>
       </c>
       <c r="AJ222" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="223" spans="1:36" x14ac:dyDescent="0.35">
@@ -25568,7 +25569,7 @@
         <v>3229</v>
       </c>
       <c r="C223" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D223">
         <v>1620</v>
@@ -25664,7 +25665,7 @@
         <v>41</v>
       </c>
       <c r="AJ223" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="224" spans="1:36" x14ac:dyDescent="0.35">
@@ -25675,7 +25676,7 @@
         <v>3230</v>
       </c>
       <c r="C224" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D224">
         <v>1620</v>
@@ -25771,7 +25772,7 @@
         <v>41</v>
       </c>
       <c r="AJ224" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="225" spans="1:36" x14ac:dyDescent="0.35">
@@ -25782,7 +25783,7 @@
         <v>3231</v>
       </c>
       <c r="C225" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D225">
         <v>3230</v>
@@ -25878,7 +25879,7 @@
         <v>41</v>
       </c>
       <c r="AJ225" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="226" spans="1:36" x14ac:dyDescent="0.35">
@@ -25889,7 +25890,7 @@
         <v>3232</v>
       </c>
       <c r="C226" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D226">
         <v>3230</v>
@@ -25985,7 +25986,7 @@
         <v>41</v>
       </c>
       <c r="AJ226" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="227" spans="1:36" x14ac:dyDescent="0.35">
@@ -25996,7 +25997,7 @@
         <v>3233</v>
       </c>
       <c r="C227" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D227">
         <v>3230</v>
@@ -26092,7 +26093,7 @@
         <v>41</v>
       </c>
       <c r="AJ227" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="228" spans="1:36" x14ac:dyDescent="0.35">
@@ -26103,7 +26104,7 @@
         <v>3234</v>
       </c>
       <c r="C228" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D228">
         <v>3230</v>
@@ -26199,7 +26200,7 @@
         <v>41</v>
       </c>
       <c r="AJ228" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="229" spans="1:36" x14ac:dyDescent="0.35">
@@ -26210,7 +26211,7 @@
         <v>3235</v>
       </c>
       <c r="C229" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D229">
         <v>3230</v>
@@ -26306,7 +26307,7 @@
         <v>41</v>
       </c>
       <c r="AJ229" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="230" spans="1:36" x14ac:dyDescent="0.35">
@@ -26317,7 +26318,7 @@
         <v>3236</v>
       </c>
       <c r="C230" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D230">
         <v>3230</v>
@@ -26413,7 +26414,7 @@
         <v>41</v>
       </c>
       <c r="AJ230" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="231" spans="1:36" x14ac:dyDescent="0.35">
@@ -26424,7 +26425,7 @@
         <v>3237</v>
       </c>
       <c r="C231" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D231">
         <v>1620</v>
@@ -26520,7 +26521,7 @@
         <v>41</v>
       </c>
       <c r="AJ231" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="232" spans="1:36" x14ac:dyDescent="0.35">
@@ -26531,7 +26532,7 @@
         <v>3238</v>
       </c>
       <c r="C232" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D232">
         <v>1620</v>
@@ -26635,7 +26636,7 @@
         <v>3239</v>
       </c>
       <c r="C233" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D233">
         <v>1620</v>
@@ -26683,7 +26684,7 @@
         <v>7</v>
       </c>
       <c r="S233" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="T233" t="s">
         <v>41</v>
@@ -26739,7 +26740,7 @@
         <v>3240</v>
       </c>
       <c r="C234" t="s">
-        <v>485</v>
+        <v>86</v>
       </c>
       <c r="D234">
         <v>1620</v>
@@ -26812,6 +26813,27 @@
       </c>
       <c r="AA234" t="s">
         <v>41</v>
+      </c>
+      <c r="AB234" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC234">
+        <v>7</v>
+      </c>
+      <c r="AD234">
+        <v>7</v>
+      </c>
+      <c r="AE234">
+        <v>7</v>
+      </c>
+      <c r="AF234">
+        <v>7</v>
+      </c>
+      <c r="AG234">
+        <v>253</v>
+      </c>
+      <c r="AH234" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="235" spans="1:36" x14ac:dyDescent="0.35">
@@ -26926,7 +26948,7 @@
         <v>3242</v>
       </c>
       <c r="C236" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D236">
         <v>1620</v>
@@ -27030,7 +27052,7 @@
         <v>3243</v>
       </c>
       <c r="C237" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D237">
         <v>3242</v>
@@ -27134,7 +27156,7 @@
         <v>3244</v>
       </c>
       <c r="C238" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D238">
         <v>1620</v>
@@ -27238,7 +27260,7 @@
         <v>3245</v>
       </c>
       <c r="C239" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D239">
         <v>1620</v>
@@ -27286,7 +27308,7 @@
         <v>7</v>
       </c>
       <c r="S239" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="T239" t="s">
         <v>41</v>
@@ -27342,7 +27364,7 @@
         <v>1618</v>
       </c>
       <c r="C240" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D240">
         <v>1620</v>
@@ -27550,7 +27572,7 @@
         <v>3246</v>
       </c>
       <c r="C242" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D242">
         <v>1620</v>
@@ -27598,7 +27620,7 @@
         <v>7</v>
       </c>
       <c r="S242" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="T242" t="s">
         <v>41</v>
@@ -27654,7 +27676,7 @@
         <v>3248</v>
       </c>
       <c r="C243" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D243">
         <v>1620</v>
@@ -27758,7 +27780,7 @@
         <v>3249</v>
       </c>
       <c r="C244" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D244">
         <v>1620</v>
@@ -27806,7 +27828,7 @@
         <v>7</v>
       </c>
       <c r="S244" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="T244" t="s">
         <v>41</v>
@@ -27862,7 +27884,7 @@
         <v>3250</v>
       </c>
       <c r="C245" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D245">
         <v>3249</v>
@@ -27910,7 +27932,7 @@
         <v>7</v>
       </c>
       <c r="S245" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="T245" t="s">
         <v>41</v>
@@ -27966,7 +27988,7 @@
         <v>3251</v>
       </c>
       <c r="C246" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D246">
         <v>3249</v>
@@ -28014,7 +28036,7 @@
         <v>7</v>
       </c>
       <c r="S246" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="T246" t="s">
         <v>41</v>
@@ -28070,7 +28092,7 @@
         <v>3252</v>
       </c>
       <c r="C247" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D247">
         <v>1620</v>
@@ -28174,7 +28196,7 @@
         <v>3253</v>
       </c>
       <c r="C248" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D248">
         <v>3252</v>
@@ -28278,7 +28300,7 @@
         <v>3254</v>
       </c>
       <c r="C249" t="s">
-        <v>486</v>
+        <v>262</v>
       </c>
       <c r="E249" t="s">
         <v>38</v>
@@ -28348,6 +28370,27 @@
       </c>
       <c r="AA249" t="s">
         <v>41</v>
+      </c>
+      <c r="AB249" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC249">
+        <v>7</v>
+      </c>
+      <c r="AD249">
+        <v>7</v>
+      </c>
+      <c r="AE249">
+        <v>7</v>
+      </c>
+      <c r="AF249">
+        <v>7</v>
+      </c>
+      <c r="AG249">
+        <v>253</v>
+      </c>
+      <c r="AH249" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="250" spans="1:34" x14ac:dyDescent="0.35">
@@ -29290,7 +29333,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AJ258" xr:uid="{FAD1B16C-AC97-4753-B672-739F36E48A9E}">
+  <autoFilter ref="A1:AJ258" xr:uid="{02DDE68A-8D06-4752-A48A-1F68471CAF53}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AJ258">
       <sortCondition ref="C1:C258"/>
     </sortState>
